--- a/biology/Microbiologie/Milieu_BCYE/Milieu_BCYE.xlsx
+++ b/biology/Microbiologie/Milieu_BCYE/Milieu_BCYE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milieu BCYE (de l'anglais Buffered Charcoal Yeast Extract) est un milieu de culture employé en microbiologie pour l'isolement des Légionelles et plus particulièrement du pathogène L. pneumophila. Il a été mis au point en 1980 par Pasculle et al. à partir du milieu CYE
-[1]. C'est l'un des milieux employés par les CDC américains pour la recherche de Légionnelles dans l'environnement en cas d'épidémie[2]. 
+. C'est l'un des milieux employés par les CDC américains pour la recherche de Légionnelles dans l'environnement en cas d'épidémie. 
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par rapport à son prédécesseur ce milieu est enrichi d'un système tampon qui maintient le pH proche de l'optimum physiologique de L. pneumophila soit environ 6,9 à 35°C[3]. Le tampon est formé dans le milieu par le mélange de 10 g d'ACES (l'un des tampons de Good) avec le volume suffisant d'une solution aqueuse d'hydroxyde de potassium (KOH) à 1 mol/L pour amener le pH à la valeur souhaitée après autoclavage et refroidissement.
-Il existe une version enrichie nommée « milieu BCYEα » dont la composition est identique si ce n'est l'ajout d'un facteur de croissance supplémentaire, l'α-cétoglutarate, à hauteur de 0,1% (m/v). Dans la plupart des laboratoires de microbiologie médicale c'est le milieu de base pour l'ensemencement de prélèvements cliniques suspects de contenir des Légionnelles[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par rapport à son prédécesseur ce milieu est enrichi d'un système tampon qui maintient le pH proche de l'optimum physiologique de L. pneumophila soit environ 6,9 à 35°C. Le tampon est formé dans le milieu par le mélange de 10 g d'ACES (l'un des tampons de Good) avec le volume suffisant d'une solution aqueuse d'hydroxyde de potassium (KOH) à 1 mol/L pour amener le pH à la valeur souhaitée après autoclavage et refroidissement.
+Il existe une version enrichie nommée « milieu BCYEα » dont la composition est identique si ce n'est l'ajout d'un facteur de croissance supplémentaire, l'α-cétoglutarate, à hauteur de 0,1% (m/v). Dans la plupart des laboratoires de microbiologie médicale c'est le milieu de base pour l'ensemencement de prélèvements cliniques suspects de contenir des Légionnelles.
 </t>
         </is>
       </c>
@@ -544,16 +558,18 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pour 1000 mL de milieu[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pour 1000 mL de milieu :
 extrait de levure : 10 g
 ACES : 10 g
 hydroxyde de potassium : qsp pH = 6,9 ± 0,1 à 35°C (soit environ 40 mL d'une solution aqueuse de KOH à 1 mol/L)
 charbon activé : 2 g
 L-cystéine chlorhydrate : 400 mg
 pyrophosphate de fer(III) : 250 mg
-agar : 13 g[6].
+agar : 13 g.
 Pour la version « BCYEα » ajouter à cette formule :
 α-cétoglutarate de potassium : 1 g.</t>
         </is>
@@ -583,7 +599,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La base CYE (milieu CYE sans additifs) est dissoute à chaud dans le volume correspondant d'eau distillée et le mélange est stérilisé à l'autoclave (15 minutes à 121°C). Après refroidissement partiel jusqu'à 50°C les additifs thermosensibles (tampon, cystéine, pyrophosphate de fer, et le cas échéant α-cétoglutarate) sont introduits aseptiquement, par exemple par filtration stérilisante. Le mélange homogénéisé est réparti dans des contenants stériles.
 </t>
